--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_14.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_14.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_8</t>
+          <t>model_1_14_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994963539846096</v>
+        <v>0.9492409993725017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8277040836328583</v>
+        <v>0.74417805221453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8158693230529792</v>
+        <v>0.7560226944182543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990837730564953</v>
+        <v>0.8597503898075893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002096439984816154</v>
+        <v>0.1779362138246353</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152143586096823</v>
+        <v>1.710682542793194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6586247549294102</v>
+        <v>0.8726926754489128</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002808781293627523</v>
+        <v>0.3513308812601496</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1361362549472901</v>
+        <v>1.417350834503554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0457868975233762</v>
+        <v>0.4218248615535069</v>
       </c>
       <c r="L2" t="n">
-        <v>1.032233344984988</v>
+        <v>0.9308813608476619</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04650799538926374</v>
+        <v>0.4284681814528132</v>
       </c>
       <c r="N2" t="n">
-        <v>142.3350292362656</v>
+        <v>37.45266028442462</v>
       </c>
       <c r="O2" t="n">
-        <v>283.670201779482</v>
+        <v>74.41724387265043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_7</t>
+          <t>model_1_14_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994907202867639</v>
+        <v>0.94898553947455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8276295927642254</v>
+        <v>0.7425151141269083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8157837973025742</v>
+        <v>0.7513849567359976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991499842203108</v>
+        <v>0.8534818235648597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00211989040250048</v>
+        <v>0.1788317312001474</v>
       </c>
       <c r="G3" t="n">
-        <v>1.152641706878369</v>
+        <v>1.721802617442246</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6589306755795408</v>
+        <v>0.8892815942268638</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002605804640656649</v>
+        <v>0.3670338903399921</v>
       </c>
       <c r="J3" t="n">
-        <v>0.136309721345603</v>
+        <v>1.425155935572493</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04604226756471145</v>
+        <v>0.4228850094294517</v>
       </c>
       <c r="L3" t="n">
-        <v>1.032593901647111</v>
+        <v>0.9305335005610894</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04676738725347364</v>
+        <v>0.429545025598045</v>
       </c>
       <c r="N3" t="n">
-        <v>142.3127817771366</v>
+        <v>37.44261992885176</v>
       </c>
       <c r="O3" t="n">
-        <v>283.647954320353</v>
+        <v>74.40720351707759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_1</t>
+          <t>model_1_14_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991763763139685</v>
+        <v>0.9484023943531601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8276064744707756</v>
+        <v>0.7393350422077349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8144496039061576</v>
+        <v>0.7463106982254619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988000265274095</v>
+        <v>0.8456762545943542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003428355581249943</v>
+        <v>0.1808759525939432</v>
       </c>
       <c r="G4" t="n">
-        <v>1.152796299013119</v>
+        <v>1.743067773008643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.663703007997545</v>
+        <v>0.9074319226966365</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003678633406881588</v>
+        <v>0.3865871527082962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1638902309736427</v>
+        <v>1.434033400664753</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05855216120050517</v>
+        <v>0.4252951358691316</v>
       </c>
       <c r="L4" t="n">
-        <v>1.052711915906016</v>
+        <v>0.9297394306085585</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05947429920872535</v>
+        <v>0.4319931091199074</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3513491102801</v>
+        <v>37.4198876549145</v>
       </c>
       <c r="O4" t="n">
-        <v>282.6865216534965</v>
+        <v>74.38447124314033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_5</t>
+          <t>model_1_14_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994660215819926</v>
+        <v>0.9483587396735161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8275894578146649</v>
+        <v>0.739135451185884</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8160526359396435</v>
+        <v>0.7457704915685505</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992007746113242</v>
+        <v>0.8449364355301424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00222269942048816</v>
+        <v>0.1810289845353832</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152910089470885</v>
+        <v>1.744402439090793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6579690553629036</v>
+        <v>0.9093642105854269</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002450101841054824</v>
+        <v>0.3884404290450075</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1438699430078268</v>
+        <v>1.43524956214779</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0471455132593565</v>
+        <v>0.4254750104711006</v>
       </c>
       <c r="L5" t="n">
-        <v>1.034174618752473</v>
+        <v>0.929679985938405</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04788800796496826</v>
+        <v>0.4321758165670487</v>
       </c>
       <c r="N5" t="n">
-        <v>142.2180657331957</v>
+        <v>37.41819624996408</v>
       </c>
       <c r="O5" t="n">
-        <v>283.5532382764121</v>
+        <v>74.38277983818989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_6</t>
+          <t>model_1_14_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994769502053666</v>
+        <v>0.948073599203432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8275766775346893</v>
+        <v>0.7379621791331439</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8160866550763269</v>
+        <v>0.7419755087212477</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992141381013752</v>
+        <v>0.840023007111067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00217720873393414</v>
+        <v>0.182028547470581</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15299555126193</v>
+        <v>1.752248114709888</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65784737088353</v>
+        <v>0.9229386441844802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0024091347846514</v>
+        <v>0.4007487636928839</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1431828601788254</v>
+        <v>1.444065227424842</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04666056937001669</v>
+        <v>0.426648036993704</v>
       </c>
       <c r="L6" t="n">
-        <v>1.033475186856535</v>
+        <v>0.9292917095536096</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04739542669413738</v>
+        <v>0.4333673170847868</v>
       </c>
       <c r="N6" t="n">
-        <v>142.2594232397361</v>
+        <v>37.40718349994344</v>
       </c>
       <c r="O6" t="n">
-        <v>283.5945957829525</v>
+        <v>74.37176708816926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_9</t>
+          <t>model_1_14_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995063727610036</v>
+        <v>0.9475486365082827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8275447886751172</v>
+        <v>0.7358487004011554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.815855938781572</v>
+        <v>0.7369535256518649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990809650677112</v>
+        <v>0.8330899882303231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002054736560606444</v>
+        <v>0.1838688097535119</v>
       </c>
       <c r="G7" t="n">
-        <v>1.153208792212723</v>
+        <v>1.76638095672237</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6586726296921691</v>
+        <v>0.9409019864323538</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002817389451710571</v>
+        <v>0.4181162531983687</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1347060398336168</v>
+        <v>1.456887474919996</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04532920207334831</v>
+        <v>0.4287992651037452</v>
       </c>
       <c r="L7" t="n">
-        <v>1.031592143295768</v>
+        <v>0.9285768667346828</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0460430916934255</v>
+        <v>0.4355524248871219</v>
       </c>
       <c r="N7" t="n">
-        <v>142.3752152672073</v>
+        <v>37.38706553228356</v>
       </c>
       <c r="O7" t="n">
-        <v>283.7103878104236</v>
+        <v>74.35164912050939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_0</t>
+          <t>model_1_14_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9991542642396005</v>
+        <v>0.9475001570163166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8275313744661176</v>
+        <v>0.7356500468370955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8144449229544294</v>
+        <v>0.7365521189189148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9987658278428421</v>
+        <v>0.8325059097593106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003520397681128893</v>
+        <v>0.1840387551256026</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15329849309007</v>
+        <v>1.767709354019954</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6637197514904597</v>
+        <v>0.9423377950412164</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003783472744079374</v>
+        <v>0.4195793931219978</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1629224603835804</v>
+        <v>1.458061105859834</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05933293925914081</v>
+        <v>0.4289973835882949</v>
       </c>
       <c r="L8" t="n">
-        <v>1.054127088665567</v>
+        <v>0.9285108521073248</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06026737374129278</v>
+        <v>0.4357536635397575</v>
       </c>
       <c r="N8" t="n">
-        <v>141.2983626363204</v>
+        <v>37.385217835738</v>
       </c>
       <c r="O8" t="n">
-        <v>282.6335351795368</v>
+        <v>74.34980142396383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_4</t>
+          <t>model_1_14_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993642794377827</v>
+        <v>0.9474205787213943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8274192850091475</v>
+        <v>0.735276475845258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8143613780747641</v>
+        <v>0.7362636154570108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9990091962881882</v>
+        <v>0.8319035615149979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00264620381195472</v>
+        <v>0.1843177176805397</v>
       </c>
       <c r="G9" t="n">
-        <v>1.154048035804954</v>
+        <v>1.770207424962506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6640185866808119</v>
+        <v>0.9433697551960549</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003037403506983141</v>
+        <v>0.4210882995582406</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1489861996083307</v>
+        <v>1.458947460622327</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05144126565272981</v>
+        <v>0.4293223936397212</v>
       </c>
       <c r="L9" t="n">
-        <v>1.040686115981906</v>
+        <v>0.9284024901738135</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05225141416436023</v>
+        <v>0.4360837921746029</v>
       </c>
       <c r="N9" t="n">
-        <v>141.8692583796357</v>
+        <v>37.38218856785363</v>
       </c>
       <c r="O9" t="n">
-        <v>283.2044309228521</v>
+        <v>74.34677215607945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_3</t>
+          <t>model_1_14_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993571699032171</v>
+        <v>0.9470199317003839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8273916871037297</v>
+        <v>0.7340200415562952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8144302588092648</v>
+        <v>0.7320870672230578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990177735354858</v>
+        <v>0.8264656342440303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002675797439386359</v>
+        <v>0.1857221900522849</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15423258312556</v>
+        <v>1.778609206838149</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6637722042874374</v>
+        <v>0.958309026058724</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003011109135341832</v>
+        <v>0.4347105248016233</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1488366099192458</v>
+        <v>1.47007464265564</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05172811072701533</v>
+        <v>0.4309549745069488</v>
       </c>
       <c r="L10" t="n">
-        <v>1.041141126194105</v>
+        <v>0.9278569282728631</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05254277676182587</v>
+        <v>0.4377420845585072</v>
       </c>
       <c r="N10" t="n">
-        <v>141.8470156697555</v>
+        <v>37.36700664734711</v>
       </c>
       <c r="O10" t="n">
-        <v>283.1821882129719</v>
+        <v>74.33159023557293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_14_2</t>
+          <t>model_1_14_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993475006924732</v>
+        <v>0.9469786210230182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8273445348725001</v>
+        <v>0.7338781383392826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8144874400374787</v>
+        <v>0.7317079767998216</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990236492770163</v>
+        <v>0.825950534923378</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002716045787245196</v>
+        <v>0.1858670050689343</v>
       </c>
       <c r="G11" t="n">
-        <v>1.154547890312908</v>
+        <v>1.779558114303716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6635676703496742</v>
+        <v>0.9596650105217144</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002993096487914342</v>
+        <v>0.4360008691955436</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1493467420421066</v>
+        <v>1.471223305925706</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05211569616963008</v>
+        <v>0.4311229581789102</v>
       </c>
       <c r="L11" t="n">
-        <v>1.041759955681712</v>
+        <v>0.9278006754355993</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0529364662877185</v>
+        <v>0.4379127138053799</v>
       </c>
       <c r="N11" t="n">
-        <v>141.8171564221802</v>
+        <v>37.36544777506683</v>
       </c>
       <c r="O11" t="n">
-        <v>283.1523289653966</v>
+        <v>74.33003136329266</v>
       </c>
     </row>
   </sheetData>
